--- a/戶政找收系統文件/文件/內部/系統分析.xlsx
+++ b/戶政找收系統文件/文件/內部/系統分析.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red.cheng\Desktop\規費\文件\內部\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red.cheng\Desktop\戶政找收系統文件\文件\內部\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8685" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="主功能項目" sheetId="1" r:id="rId1"/>
@@ -2419,1998 +2419,235 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="748923" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文字方塊 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>558291</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="2371725"/>
-          <a:ext cx="748923" cy="275909"/>
+          <a:off x="15408088" y="302559"/>
+          <a:ext cx="9735909" cy="6668431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>下面還有</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1313180" cy="643061"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文字方塊 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>407668</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7448550" y="628650"/>
-          <a:ext cx="1313180" cy="643061"/>
+          <a:off x="20551588" y="1591235"/>
+          <a:ext cx="2391109" cy="3000794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>有刪除和修改按鈕</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>刪除等於作廢嗎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>修改是會退費嗎</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2648097" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文字方塊 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>191860</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>200988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7448550" y="1676400"/>
-          <a:ext cx="2648097" cy="275909"/>
+          <a:off x="5534025" y="6924675"/>
+          <a:ext cx="9745435" cy="6897063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>外部人員匯入資料的功能是交易補登嗎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>454800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1801712" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文字方塊 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>579982</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>172410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7467600" y="2457450"/>
-          <a:ext cx="1801712" cy="275909"/>
+          <a:off x="9370200" y="0"/>
+          <a:ext cx="9726382" cy="6878010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>補登時間會在過帳之後嗎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2355132" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="文字方塊 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177535</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4543425" y="1495425"/>
-          <a:ext cx="2355132" cy="275909"/>
+          <a:off x="33300" y="14250"/>
+          <a:ext cx="9745435" cy="6906589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>這個功能有需要由繳費機收金額嗎</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1313180" cy="643061"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文字方塊 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="419100"/>
-          <a:ext cx="1313180" cy="643061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>驗證</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>狀態</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>這兩個欄位的定義</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1736373" cy="643061"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文字方塊 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9848850" y="1047750"/>
-          <a:ext cx="1736373" cy="643061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>查詢條件裡面的顯示模式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>所有交易</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>還有其他的嗎</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1313180" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文字方塊 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209800" y="8401050"/>
-          <a:ext cx="1313180" cy="275909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>參考代碼的定義是</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2159566" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文字方塊 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2219325" y="5962650"/>
-          <a:ext cx="2159566" cy="275909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>是否就是各項費用科目表的內容</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2159566" cy="643061"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文字方塊 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9753600" y="1905000"/>
-          <a:ext cx="2159566" cy="643061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>表格裡面的</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>序號是我們自己定義的流水號嗎</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>單據號碼是不是有編碼規則</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1877437" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文字方塊 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2105025" y="1971675"/>
-          <a:ext cx="1877437" cy="275909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>使用狀態跟憑證狀態的定義</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文字方塊 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="2362200"/>
-          <a:ext cx="1172116" cy="275909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>使用日期的定義</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文字方塊 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2152650" y="1600200"/>
-          <a:ext cx="1172116" cy="275909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>調整日期的定義</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1584921" cy="1010213"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文字方塊 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5857875" y="314325"/>
-          <a:ext cx="1584921" cy="1010213"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>功能鍵有</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>換工作站</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>分解</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>合併</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>這三個分別的功能是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>??</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1660647" cy="643061"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="文字方塊 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5791200" y="1781175"/>
-          <a:ext cx="1660647" cy="643061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>刪除有什麼條件限制嗎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>?</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>例如</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>已使用過</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1660647" cy="826637"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="文字方塊 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5810250" y="3295650"/>
-          <a:ext cx="1660647" cy="826637"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>新增有什麼條件限制嗎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>?</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>例如</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>號碼重複</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>張數過多</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="文字方塊 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8020050" y="371475"/>
-          <a:ext cx="889987" cy="275909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>無編輯功能</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2527230" cy="826637"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文字方塊 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2428875" y="209550"/>
-          <a:ext cx="2527230" cy="826637"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>過帳有什麼條件限制嗎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>?</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>例如</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>過帳後無法再交易</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>過帳後可否取消過帳</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>取消過帳的限制</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="459485"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文字方塊 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1447800" y="2305050"/>
-          <a:ext cx="1172116" cy="459485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>下面還有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>是否跟報表一樣</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1454244" cy="459485"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文字方塊 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1885950"/>
-          <a:ext cx="1454244" cy="459485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>查詢條件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>顯示類別是什麼類別</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="826637"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文字方塊 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2667000"/>
-          <a:ext cx="889987" cy="826637"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>查詢條件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>收款類別是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>現金</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>悠遊卡</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1096390" cy="275909"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文字方塊 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2181225" y="1219200"/>
-          <a:ext cx="1096390" cy="275909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>狀態的定義是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>?</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1172116" cy="459485"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文字方塊 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1676400"/>
-          <a:ext cx="1172116" cy="459485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>下面還有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>是否跟報表一樣</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1877437" cy="459485"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文字方塊 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6200775" y="495300"/>
-          <a:ext cx="1877437" cy="459485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>罰緩的項目</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>是否在各項費用科目表裡面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4849,6 +3086,2703 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="2371725"/>
+          <a:ext cx="748923" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>下面還有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="643061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="628650"/>
+          <a:ext cx="1313180" cy="643061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>有刪除和修改按鈕</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>刪除等於作廢嗎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>修改是會退費嗎</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2648097" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="1676400"/>
+          <a:ext cx="2648097" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>外部人員匯入資料的功能是交易補登嗎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1801712" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="2457450"/>
+          <a:ext cx="1801712" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>補登時間會在過帳之後嗎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2355132" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文字方塊 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="1495425"/>
+          <a:ext cx="2355132" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>這個功能有需要由繳費機收金額嗎</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>410640</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="3181350"/>
+          <a:ext cx="7630590" cy="5268060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="643061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="419100"/>
+          <a:ext cx="1313180" cy="643061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>驗證</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>狀態</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>這兩個欄位的定義</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144228</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>153158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="2895600"/>
+          <a:ext cx="9697803" cy="5430008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7125</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>197625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>665686</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>74017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8227200" y="8579625"/>
+          <a:ext cx="9573961" cy="1552792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="643061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="1047750"/>
+          <a:ext cx="1736373" cy="643061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>查詢條件裡面的顯示模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>所有交易</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>還有其他的嗎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="8401050"/>
+          <a:ext cx="1313180" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>參考代碼的定義是</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2159566" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="5962650"/>
+          <a:ext cx="2159566" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>是否就是各項費用科目表的內容</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2159566" cy="643061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1905000"/>
+          <a:ext cx="2159566" cy="643061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表格裡面的</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>序號是我們自己定義的流水號嗎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>單據號碼是不是有編碼規則</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220136</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>48362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="5038725"/>
+          <a:ext cx="7602011" cy="5277587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>515711</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12268200" y="457200"/>
+          <a:ext cx="9754961" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="1971675"/>
+          <a:ext cx="1877437" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>使用狀態跟憑證狀態的定義</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="2362200"/>
+          <a:ext cx="1172116" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>使用日期的定義</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="1600200"/>
+          <a:ext cx="1172116" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>調整日期的定義</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1584921" cy="1010213"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="314325"/>
+          <a:ext cx="1584921" cy="1010213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>功能鍵有</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>換工作站</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分解</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>合併</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>這三個分別的功能是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>??</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1660647" cy="643061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文字方塊 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="1781175"/>
+          <a:ext cx="1660647" cy="643061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>刪除有什麼條件限制嗎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>例如</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>已使用過</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1660647" cy="826637"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文字方塊 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="3295650"/>
+          <a:ext cx="1660647" cy="826637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新增有什麼條件限制嗎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>例如</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>號碼重複</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>張數過多</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文字方塊 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="371475"/>
+          <a:ext cx="889987" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>無編輯功能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>125182</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>10433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="圖片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="5657850"/>
+          <a:ext cx="9726382" cy="6506483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>399005</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>122271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="圖片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9894075" y="559575"/>
+          <a:ext cx="9707330" cy="6058746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>115661</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>134371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="圖片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13677900" y="6019800"/>
+          <a:ext cx="9754961" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2527230" cy="826637"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="209550"/>
+          <a:ext cx="2527230" cy="826637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>過帳有什麼條件限制嗎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>例如</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>過帳後無法再交易</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>過帳後可否取消過帳</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>取消過帳的限制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>172518</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="771525"/>
+          <a:ext cx="7649643" cy="5268060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="459485"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="2305050"/>
+          <a:ext cx="1172116" cy="459485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>下面還有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>是否跟報表一樣</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="459485"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1885950"/>
+          <a:ext cx="1454244" cy="459485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>查詢條件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顯示類別是什麼類別</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="826637"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="889987" cy="826637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>查詢條件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收款類別是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現金</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>悠遊卡</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1096390" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="1219200"/>
+          <a:ext cx="1096390" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>狀態的定義是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>458258</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>172169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="4448175"/>
+          <a:ext cx="7582958" cy="5153744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>464325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>169050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>503483</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>169781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10998975" y="5407800"/>
+          <a:ext cx="7582958" cy="5239481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>396311</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>172176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10872750" y="0"/>
+          <a:ext cx="7602011" cy="5201376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>115321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="圖片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14277975" y="1809750"/>
+          <a:ext cx="9754961" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="459485"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1676400"/>
+          <a:ext cx="1172116" cy="459485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>下面還有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>是否跟報表一樣</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="459485"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="495300"/>
+          <a:ext cx="1877437" cy="459485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>罰緩的項目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>是否在各項費用科目表裡面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>29635</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>191226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="1485900"/>
+          <a:ext cx="7592485" cy="5201376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>439509</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>29532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="85725"/>
+          <a:ext cx="9735909" cy="6858957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>83325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144235</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>36659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="83325"/>
+          <a:ext cx="9745435" cy="6868484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5119,8 +6053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5361,14 +6295,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5639,7 +6574,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5807,7 +6742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6035,7 +6970,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6211,7 +7146,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6255,7 +7190,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6458,7 +7393,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6568,12 +7503,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/戶政找收系統文件/文件/內部/系統分析.xlsx
+++ b/戶政找收系統文件/文件/內部/系統分析.xlsx
@@ -6343,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6742,7 +6742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/戶政找收系統文件/文件/內部/系統分析.xlsx
+++ b/戶政找收系統文件/文件/內部/系統分析.xlsx
@@ -6742,7 +6742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
